--- a/data/trans_orig/Q02G_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_R-Edad-trans_orig.xlsx
@@ -614,7 +614,7 @@
         <v>5.790891029156485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.33873265379357</v>
+        <v>4.338732653793571</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>5.093811042674023</v>
@@ -634,19 +634,19 @@
         <v>1.714285714285714</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.64614053867892</v>
+        <v>1.601994408130143</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>5.571428571428571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.480918715167752</v>
+        <v>2.520972444274065</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.794997168720779</v>
+        <v>2.617643764256151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.330209014485064</v>
+        <v>2.461542376701401</v>
       </c>
     </row>
     <row r="6">
@@ -660,19 +660,19 @@
         <v>7.142857142857142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.499526861810179</v>
+        <v>4.448986744222975</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.699137845908687</v>
+        <v>9.16174442430977</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>6.309073652680412</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.024941931014044</v>
+        <v>6.123368935942865</v>
       </c>
     </row>
     <row r="7">
@@ -693,13 +693,13 @@
         <v>3.105581831275812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.81427613146572</v>
+        <v>2.814276131465719</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>3.133236746930138</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.739085848249752</v>
+        <v>3.739085848249751</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>3.121902946147144</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.292659169050725</v>
+        <v>3.23844966014599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.99394383071295</v>
+        <v>1.94046678414677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.886747590664725</v>
+        <v>1.995629872581235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.075720648165077</v>
+        <v>2.200559582004376</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.974078252924623</v>
+        <v>2.862693557356759</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.314968500298588</v>
+        <v>2.325275180325287</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.618748957190274</v>
+        <v>5.568151931747211</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.997150169014658</v>
+        <v>4.817358767091856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.931709083627039</v>
+        <v>4.16848259701689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.479734046187419</v>
+        <v>4.570732620340312</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.631841120788617</v>
+        <v>4.621883582783717</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.163925869260762</v>
+        <v>4.078925615406303</v>
       </c>
     </row>
     <row r="10">
@@ -778,10 +778,10 @@
         <v>3.302564415405727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.492035594619116</v>
+        <v>3.492035594619117</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>3.093285418815017</v>
+        <v>3.093285418815018</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>3.129864292665366</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.322687087468031</v>
+        <v>1.29885139982835</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.14850810906993</v>
+        <v>1.143028044178739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.656652877269684</v>
+        <v>2.631832223163094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.676288926800199</v>
+        <v>2.716840136055334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.493734699685885</v>
+        <v>2.534721026877753</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.496141062286327</v>
+        <v>2.436105580522767</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.448945417748076</v>
+        <v>3.368196618061611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.816543105360517</v>
+        <v>2.876799182102425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.316092912223137</v>
+        <v>4.315549540630767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.645449607151171</v>
+        <v>4.804679016128151</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.019623185351221</v>
+        <v>4.109178907748706</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.223253139141296</v>
+        <v>4.210816012082269</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +854,7 @@
         <v>4.537610879305351</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.476848027449799</v>
+        <v>4.476848027449798</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>4.597903977894515</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.447952998063909</v>
+        <v>3.461058448141709</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.061992323730576</v>
+        <v>2.966565244247584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.672063588625178</v>
+        <v>3.758603230654594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.0545229311131</v>
+        <v>2.99933063048615</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.729719116118829</v>
+        <v>3.796268325552157</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.26936636533187</v>
+        <v>3.299392600642216</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.217095799122447</v>
+        <v>7.584429838691753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.268651088041333</v>
+        <v>6.812516077088578</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.766995822957901</v>
+        <v>5.836373176044519</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.402973550021268</v>
+        <v>5.332998803041164</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.584444164714829</v>
+        <v>5.615610690792487</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.241792368134032</v>
+        <v>5.38496431033668</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.622176551528851</v>
+        <v>1.621205470442778</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.371540370615201</v>
+        <v>2.461454668971065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.874506218956173</v>
+        <v>3.046185292971594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.48660720049347</v>
+        <v>3.496027445727083</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.719245518147215</v>
+        <v>2.664399788952362</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.463118518213672</v>
+        <v>3.484300319441266</v>
       </c>
     </row>
     <row r="18">
@@ -988,19 +988,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.032112750897438</v>
+        <v>9.641453527965536</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.963588686270311</v>
+        <v>6.153173555944731</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.25435449379544</v>
+        <v>7.476441059756346</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.186436180038091</v>
+        <v>5.176954255900432</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.495644264232375</v>
+        <v>6.810792174244366</v>
       </c>
     </row>
     <row r="19">
@@ -1024,13 +1024,13 @@
         <v>3.103391337439246</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.128498011222576</v>
+        <v>5.128498011222575</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>3.354752329780556</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>4.475935613234245</v>
+        <v>4.475935613234244</v>
       </c>
     </row>
     <row r="20">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.073785352545361</v>
+        <v>2.088323442907434</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.548890250250706</v>
+        <v>1.576285249997004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.309477003520462</v>
+        <v>2.273709828711052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.528471971819696</v>
+        <v>3.392446083681749</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.556235944076098</v>
+        <v>2.534890972419031</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.191857859290811</v>
+        <v>3.18351750511804</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.548322166292182</v>
+        <v>7.794690179509833</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.496606618041595</v>
+        <v>5.938181585390685</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.212537295828688</v>
+        <v>4.26065819033873</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.929661050296385</v>
+        <v>7.826940095158019</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>5.383422393900721</v>
+        <v>5.296393541356765</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.555295162675169</v>
+        <v>6.607288141202175</v>
       </c>
     </row>
     <row r="22">
@@ -1130,13 +1130,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.573474627694615</v>
+        <v>1.659420337135916</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>2.58843497442835</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.845945592617628</v>
+        <v>1.814942463147217</v>
       </c>
     </row>
     <row r="24">
@@ -1154,13 +1154,13 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.831424459453779</v>
+        <v>2.846772610666236</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>7</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.191293063322311</v>
+        <v>3.19822693274653</v>
       </c>
     </row>
     <row r="25">
@@ -1184,13 +1184,13 @@
         <v>3.927793035337523</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.046387771740472</v>
+        <v>4.046387771740473</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>3.827727560496572</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>3.918641669342509</v>
+        <v>3.91864166934251</v>
       </c>
     </row>
     <row r="26">
@@ -1201,22 +1201,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.928828834564606</v>
+        <v>2.895729127048899</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.830809593444266</v>
+        <v>2.824039725231824</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.465944883632257</v>
+        <v>3.406393291777655</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.494803660045183</v>
+        <v>3.455412711605845</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.40736050369651</v>
+        <v>3.404909386776233</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.488285893476387</v>
+        <v>3.419036698918279</v>
       </c>
     </row>
     <row r="27">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.349759112272706</v>
+        <v>4.360777909903164</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.929757563725275</v>
+        <v>5.020704576074951</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.488359147506339</v>
+        <v>4.520165404940597</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.885254197033425</v>
+        <v>4.752269104904605</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>4.305858065459699</v>
+        <v>4.321688304921881</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>4.615556331445692</v>
+        <v>4.535169864092125</v>
       </c>
     </row>
     <row r="28">
